--- a/Student Files/SC4-Data.xlsx
+++ b/Student Files/SC4-Data.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel OER\October\data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Desktop\Excel 365 Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A298B8-AAC2-44CA-89C8-A2BAE5F6C3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="8496"/>
+    <workbookView xWindow="1950" yWindow="1395" windowWidth="19365" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International" sheetId="2" r:id="rId1"/>
-    <sheet name="Disenfranchisement rate" sheetId="1" r:id="rId2"/>
+    <sheet name="Disenfranchisement Rate" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,9 +99,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Individuals incarcerated *</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -103,17 +109,20 @@
   </si>
   <si>
     <t>Brazil</t>
+  </si>
+  <si>
+    <t>Individuals Incarcerated *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +269,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Title" xfId="7" builtinId="15"/>
-    <cellStyle name="Title 2" xfId="6"/>
+    <cellStyle name="Title 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,26 +547,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.77734375" customWidth="1"/>
+    <col min="1" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="11">
         <v>2015</v>
       </c>
@@ -566,23 +575,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
       <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
@@ -590,7 +599,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
@@ -598,7 +607,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
@@ -606,15 +615,15 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
@@ -622,7 +631,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
@@ -630,7 +639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
@@ -638,7 +647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
@@ -646,7 +655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
@@ -654,7 +663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
@@ -662,7 +671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
@@ -670,7 +679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75">
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
@@ -678,7 +687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
@@ -686,7 +695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75">
       <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
@@ -694,56 +703,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" thickTop="1"/>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -757,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1980</v>
       </c>
@@ -777,7 +786,7 @@
         <v>3.1719999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -797,7 +806,7 @@
         <v>4.4540000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1990</v>
       </c>
@@ -817,7 +826,7 @@
         <v>6.4920000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1995</v>
       </c>
@@ -837,7 +846,7 @@
         <v>6.515E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -857,7 +866,7 @@
         <v>0.10553</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -877,7 +886,7 @@
         <v>0.13389999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -897,7 +906,7 @@
         <v>0.14831</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -919,7 +928,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" location="map?dataset-option=FDR"/>
+    <hyperlink ref="A4" r:id="rId1" location="map?dataset-option=FDR" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
